--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Signature_Ruby.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Signature_Ruby.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -78,37 +78,7 @@
     <t>Call show after setting all properties and outputFormat as dataURI</t>
   </si>
   <si>
-    <t>Call setVectorCallback with function callback</t>
-  </si>
-  <si>
     <t>Call show and then call capture and clear</t>
-  </si>
-  <si>
-    <t>Call show and rotate the device</t>
-  </si>
-  <si>
-    <t>Call takeFullScreen and rotate the device portrait to landscape</t>
-  </si>
-  <si>
-    <t>Call takeFullScreen and press clear</t>
-  </si>
-  <si>
-    <t>Call takeFullScreen with callback as function and minimize</t>
-  </si>
-  <si>
-    <t>Call takeFullScreen with callback as function and suspend the device</t>
-  </si>
-  <si>
-    <t>Call show and minimize</t>
-  </si>
-  <si>
-    <t>Call show and suspend the device</t>
-  </si>
-  <si>
-    <t>Call show and scroll the page on screen</t>
-  </si>
-  <si>
-    <t>Call takeFullScreen and rotate the device  landscape to portrait</t>
   </si>
   <si>
     <t>wait(3);
@@ -124,22 +94,6 @@
 DrawSignature(inlinesignature_view_xpath);
 SwitchApp(WEBVIEW);
 TakeScreenshot(VT200-0878);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0884_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(inlinesignature_view_xpath);
-SwitchApp(WEBVIEW);
-TakeScreenshot(VT200-0884);
 wait(2);
 validate4;</t>
   </si>
@@ -176,38 +130,6 @@
 TakeScreenshot(VT200-0879-02);
 wait(2);
 validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0891_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-TakeScreenshot(VT200-0891-01);
-Lock_UnlockScreen(lock);
-Lock_UnlockScreen(unlock);
-wait(2);
-TakeScreenshot(VT200-0891-02);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0888_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-press_Key(Home);
-validate4;
-launch_App_Device(com.rhomobile.compliancetest_js/com.rhomobile.rhodes.RhodesActivity);
-wait(2);
-validate5;</t>
   </si>
   <si>
     <t>wait(3);
@@ -233,37 +155,6 @@
 validate1;
 link_Click(signature_test_link);
 validate2;
-SelectTestToRun(VT200_0892_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-ScrollPage(runtest_top_xpath);
-TakeScreenshot(VT200-0892);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0890_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-TakeScreenshot(VT200-0890-01);
-press_Key(Home);
-validate4;
-launch_App_Device(com.rhomobile.compliancetest_js/com.rhomobile.rhodes.RhodesActivity);
-TakeScreenshot(VT200-0890-02);
-validate5;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
 SelectTestToRun(VT200_0876_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
@@ -334,297 +225,7 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0887_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-TakeScreenshot(VT200-0887-01);
-ClickNativeIcon(signature_clear_xpath);
-wait(2);
-TakeScreenshot(VT200-0887-02);
-ClickNativeIcon(signature_ok_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0889_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-TakeScreenshot(VT200-0889-01);
-Lock_UnlockScreen(lock);
-Lock_UnlockScreen(unlock);
-wait(2);
-TakeScreenshot(VT200-0889-02);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0893_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-Rotate_Screen(landscape);
-wait(2);
-TakeScreenshot(VT200-0893-01);
-wait(2);
-Rotate_Screen(potrait);
-wait(2);
-TakeScreenshot(VT200-0893-02);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0885_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-Rotate_Screen(landscape);
-wait(2);
-TakeScreenshot(VT200-0885);
-wait(2);
-validate4;
-Rotate_Screen(potrait);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0886_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-Rotate_Screen(landscape);
-wait(2);
-TakeScreenshot(VT200-0886);
-wait(2);
-validate4;
-Rotate_Screen(potrait);</t>
-  </si>
-  <si>
     <t>Signature-Ruby-4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature Ruby Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0884
-};
-validate4
-{
-validate_Screenshot=VT200-0884
-}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature Ruby Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0885
-};
-validate4
-{
-validate_Screenshot=VT200-0885
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature Ruby Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0886
-};
-validate4
-{
-validate_Screenshot=VT200-0886
-};
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature Ruby Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0887
-};
-validate4
-{
-validate_Screenshot=VT200-0887-01
-validate_Screenshot=VT200-0887-02
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.rhomobile.compliancetest_js/rhodata/db/db-files/VT200-0887.png
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature Ruby Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0888
-};
-validate4
-{
-validate_AppMinimized=homescreen
-};
-validate5
-{
-validate_Result=cancel
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature Ruby Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0889
-};
-validate4
-{
-validate_Screenshot=VT200-0889-01
-validate_Screenshot=VT200-0889-02
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature Ruby Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0890
-};
-validate4
-{
-validate_AppMinimized=homescreen
-};
-validate5
-{
-validate_Screenshot=VT200-0890-01
-validate_Screenshot=VT200-0890-02
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature Ruby Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0891
-};
-validate4
-{
-validate_Screenshot=VT200-0891-01
-validate_Screenshot=VT200-0891-02
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature Ruby Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0892
-};
-validate4
-{
-validate_Screenshot=VT200-0892
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature Ruby Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0893
-};
-validate4
-{
-validate_Screenshot=VT200-0893-01
-validate_Screenshot=VT200-0893-02
-};
-</t>
   </si>
   <si>
     <t>validate1
@@ -856,7 +457,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1004,22 +605,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1064,12 +654,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1077,20 +661,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1387,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1421,7 +995,7 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1446,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
@@ -1457,11 +1031,11 @@
       <c r="F2" s="5">
         <v>1</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>39</v>
+      <c r="G2" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>11</v>
@@ -1486,11 +1060,11 @@
       <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>40</v>
+      <c r="G3" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1513,11 +1087,11 @@
       <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>30</v>
+      <c r="G4" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1535,16 +1109,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>33</v>
+      <c r="G5" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -1554,26 +1128,26 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="20">
-        <v>1</v>
-      </c>
-      <c r="C6" s="19"/>
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="20">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="19"/>
+        <v>33</v>
+      </c>
+      <c r="I6" s="17"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
@@ -1581,26 +1155,26 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="20">
-        <v>1</v>
-      </c>
-      <c r="C7" s="20"/>
+      <c r="B7" s="18">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18"/>
       <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="20">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="19"/>
+        <v>35</v>
+      </c>
+      <c r="I7" s="17"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
     </row>
@@ -1608,26 +1182,26 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="20">
-        <v>1</v>
-      </c>
-      <c r="C8" s="19"/>
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="17"/>
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="20">
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="I8" s="17"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
     </row>
@@ -1635,261 +1209,28 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="20">
-        <v>1</v>
-      </c>
-      <c r="C9" s="19"/>
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17"/>
       <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="20">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="I9" s="17"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" ht="192" thickBot="1">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="20">
-        <v>1</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="23">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" ht="192" thickBot="1">
-      <c r="A11" s="26">
-        <v>10</v>
-      </c>
-      <c r="B11" s="26">
-        <v>1</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="24">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" ht="192" thickBot="1">
-      <c r="A12" s="26">
-        <v>11</v>
-      </c>
-      <c r="B12" s="26">
-        <v>1</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="24">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" ht="248.25" thickBot="1">
-      <c r="A13" s="26">
-        <v>12</v>
-      </c>
-      <c r="B13" s="26">
-        <v>1</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="24">
-        <v>1</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" ht="225.75" thickBot="1">
-      <c r="A14" s="26">
-        <v>13</v>
-      </c>
-      <c r="B14" s="26">
-        <v>1</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="24">
-        <v>1</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:11" ht="192" thickBot="1">
-      <c r="A15" s="26">
-        <v>14</v>
-      </c>
-      <c r="B15" s="26">
-        <v>1</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="24">
-        <v>1</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" ht="237" thickBot="1">
-      <c r="A16" s="26">
-        <v>15</v>
-      </c>
-      <c r="B16" s="26">
-        <v>1</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="24">
-        <v>1</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="1:9" ht="192" thickBot="1">
-      <c r="A17" s="26">
-        <v>16</v>
-      </c>
-      <c r="B17" s="26">
-        <v>1</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="24">
-        <v>1</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="1:9" ht="180.75" thickBot="1">
-      <c r="A18" s="26">
-        <v>17</v>
-      </c>
-      <c r="B18" s="26">
-        <v>1</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="24">
-        <v>1</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="21"/>
-    </row>
-    <row r="19" spans="1:9" ht="203.25" thickBot="1">
-      <c r="A19" s="26">
-        <v>18</v>
-      </c>
-      <c r="B19" s="26">
-        <v>1</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="24">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>58</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
